--- a/src.xlsx
+++ b/src.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -36,13 +36,28 @@
     <t>42:30:0501005:52</t>
   </si>
   <si>
-    <t>нет ЕГРН</t>
-  </si>
-  <si>
-    <t>42:30:0501005:65</t>
-  </si>
-  <si>
-    <t>нет cadnum</t>
+    <t>ВидПрава</t>
+  </si>
+  <si>
+    <t>Землепользователь</t>
+  </si>
+  <si>
+    <t>Назаров Дмитрий Михайлович</t>
+  </si>
+  <si>
+    <t>частная собственность</t>
+  </si>
+  <si>
+    <t>Штайгер Нина Ивановна</t>
+  </si>
+  <si>
+    <t>Ковязин И, А, Ковязина Л.В.</t>
+  </si>
+  <si>
+    <t>аренда</t>
+  </si>
+  <si>
+    <t>Пожизн.наслед.владение</t>
   </si>
 </sst>
 </file>
@@ -404,7 +419,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +437,12 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -430,6 +451,12 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -438,6 +465,9 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -446,8 +476,11 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -457,14 +490,12 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src.xlsx
+++ b/src.xlsx
@@ -16,48 +16,1008 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="334">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>КадастровыйНомер</t>
-  </si>
-  <si>
-    <t>42:30:0501005:113</t>
-  </si>
-  <si>
-    <t>42:30:0101010:137</t>
-  </si>
-  <si>
-    <t>42:30:0101010:138</t>
-  </si>
-  <si>
-    <t>42:30:0501005:52</t>
-  </si>
-  <si>
-    <t>ВидПрава</t>
-  </si>
-  <si>
-    <t>Землепользователь</t>
-  </si>
-  <si>
-    <t>Назаров Дмитрий Михайлович</t>
-  </si>
-  <si>
-    <t>частная собственность</t>
-  </si>
-  <si>
-    <t>Штайгер Нина Ивановна</t>
-  </si>
-  <si>
-    <t>Ковязин И, А, Ковязина Л.В.</t>
-  </si>
-  <si>
-    <t>аренда</t>
-  </si>
-  <si>
-    <t>Пожизн.наслед.владение</t>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>НаимУлицы</t>
+  </si>
+  <si>
+    <t>Дом</t>
+  </si>
+  <si>
+    <t>КадастровыйНомерЗУ</t>
+  </si>
+  <si>
+    <t>Улица</t>
+  </si>
+  <si>
+    <t>Соревнования</t>
+  </si>
+  <si>
+    <t>42:30:0504011:72</t>
+  </si>
+  <si>
+    <t>42:30:0504011:58</t>
+  </si>
+  <si>
+    <t>42:30:0504009:64</t>
+  </si>
+  <si>
+    <t>Николая Руднева</t>
+  </si>
+  <si>
+    <t>42:30:0504011:56</t>
+  </si>
+  <si>
+    <t>Стахановская</t>
+  </si>
+  <si>
+    <t>42:30:0504009:72</t>
+  </si>
+  <si>
+    <t>42:30:0504009:67</t>
+  </si>
+  <si>
+    <t>42:30:0504011:55</t>
+  </si>
+  <si>
+    <t>42:30:0504011:54</t>
+  </si>
+  <si>
+    <t>Кольчугина</t>
+  </si>
+  <si>
+    <t>42:30:0504011:44</t>
+  </si>
+  <si>
+    <t>42:30:0504011:77</t>
+  </si>
+  <si>
+    <t>42:30:0504011:39</t>
+  </si>
+  <si>
+    <t>42:30:0504011:33</t>
+  </si>
+  <si>
+    <t>42:30:0504011:31</t>
+  </si>
+  <si>
+    <t>Пирамидная</t>
+  </si>
+  <si>
+    <t>42:30:0504011:85</t>
+  </si>
+  <si>
+    <t>42:30:0504011:28</t>
+  </si>
+  <si>
+    <t>42:30:0504011:80</t>
+  </si>
+  <si>
+    <t>42:30:0504011:79</t>
+  </si>
+  <si>
+    <t>42:30:0504011:17</t>
+  </si>
+  <si>
+    <t>42:30:0504011:38</t>
+  </si>
+  <si>
+    <t>42:30:0504011:46</t>
+  </si>
+  <si>
+    <t>42:30:0504011:20</t>
+  </si>
+  <si>
+    <t>42:30:0504011:70</t>
+  </si>
+  <si>
+    <t>42:30:0504011:65</t>
+  </si>
+  <si>
+    <t>42:30:0504011:64</t>
+  </si>
+  <si>
+    <t>42:30:0504011:89</t>
+  </si>
+  <si>
+    <t>42:30:0504011:62</t>
+  </si>
+  <si>
+    <t>42:30:0504011:60</t>
+  </si>
+  <si>
+    <t>42:30:0504007:75</t>
+  </si>
+  <si>
+    <t>42:30:0504007:77</t>
+  </si>
+  <si>
+    <t>42:30:0504007:79</t>
+  </si>
+  <si>
+    <t>42:30:0504008:68</t>
+  </si>
+  <si>
+    <t>42:30:0504009:188</t>
+  </si>
+  <si>
+    <t>42:30:0504009:47</t>
+  </si>
+  <si>
+    <t>42:30:0504008:39</t>
+  </si>
+  <si>
+    <t>Переулок</t>
+  </si>
+  <si>
+    <t>Желтый</t>
+  </si>
+  <si>
+    <t>42:30:0504008:63</t>
+  </si>
+  <si>
+    <t>42:30:0504007:86</t>
+  </si>
+  <si>
+    <t>42:30:0504009:60</t>
+  </si>
+  <si>
+    <t>42:30:0504009:59</t>
+  </si>
+  <si>
+    <t>42:30:0504008:73</t>
+  </si>
+  <si>
+    <t>42:30:0504008:79</t>
+  </si>
+  <si>
+    <t>Раевского</t>
+  </si>
+  <si>
+    <t>42:30:0504009:42</t>
+  </si>
+  <si>
+    <t>42:30:0504009:40</t>
+  </si>
+  <si>
+    <t>42:30:0504008:55</t>
+  </si>
+  <si>
+    <t>42:30:0504008:53</t>
+  </si>
+  <si>
+    <t>42:30:0504008:47</t>
+  </si>
+  <si>
+    <t>42:30:0504008:45</t>
+  </si>
+  <si>
+    <t>42:30:0504008:43</t>
+  </si>
+  <si>
+    <t>42:30:0504008:41</t>
+  </si>
+  <si>
+    <t>Менделеева</t>
+  </si>
+  <si>
+    <t>42:30:0504007:87</t>
+  </si>
+  <si>
+    <t>42:30:0504009:43</t>
+  </si>
+  <si>
+    <t>42:30:0504009:37</t>
+  </si>
+  <si>
+    <t>42:30:0504008:54</t>
+  </si>
+  <si>
+    <t>42:30:0504008:56</t>
+  </si>
+  <si>
+    <t>42:30:0504008:42</t>
+  </si>
+  <si>
+    <t>Крупской</t>
+  </si>
+  <si>
+    <t>42:30:0504009:182</t>
+  </si>
+  <si>
+    <t>Муромский</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1-В</t>
+  </si>
+  <si>
+    <t>Литовская</t>
+  </si>
+  <si>
+    <t>42:30:0504005:78</t>
+  </si>
+  <si>
+    <t>Гималайский</t>
+  </si>
+  <si>
+    <t>42:30:0504010:14</t>
+  </si>
+  <si>
+    <t>42:30:0504005:92</t>
+  </si>
+  <si>
+    <t>42:30:0504005:87</t>
+  </si>
+  <si>
+    <t>42:30:0504005:89</t>
+  </si>
+  <si>
+    <t>42:30:0504005:40</t>
+  </si>
+  <si>
+    <t>42:30:0504005:39</t>
+  </si>
+  <si>
+    <t>42:30:0504005:53</t>
+  </si>
+  <si>
+    <t>42:30:0504005:51</t>
+  </si>
+  <si>
+    <t>42:30:0504005:49</t>
+  </si>
+  <si>
+    <t>42:30:0504005:45</t>
+  </si>
+  <si>
+    <t>42:30:0504005:47</t>
+  </si>
+  <si>
+    <t>42:30:0504010:10</t>
+  </si>
+  <si>
+    <t>42:30:0504010:9</t>
+  </si>
+  <si>
+    <t>42:30:0504010:8</t>
+  </si>
+  <si>
+    <t>42:30:0504010:12</t>
+  </si>
+  <si>
+    <t>67-Б</t>
+  </si>
+  <si>
+    <t>Логовая</t>
+  </si>
+  <si>
+    <t>42:30:0505001:7</t>
+  </si>
+  <si>
+    <t>Логовой</t>
+  </si>
+  <si>
+    <t>42:30:0505001:14</t>
+  </si>
+  <si>
+    <t>42:30:0505001:30</t>
+  </si>
+  <si>
+    <t>42:30:0505001:20</t>
+  </si>
+  <si>
+    <t>42:30:0505001:25</t>
+  </si>
+  <si>
+    <t>42:30:0505001:26</t>
+  </si>
+  <si>
+    <t>42:30:0505001:27</t>
+  </si>
+  <si>
+    <t>42:30:0505001:13</t>
+  </si>
+  <si>
+    <t>42:30:0505001:19</t>
+  </si>
+  <si>
+    <t>42:30:0505001:21</t>
+  </si>
+  <si>
+    <t>42:30:0505001:31</t>
+  </si>
+  <si>
+    <t>42:30:0504006:103</t>
+  </si>
+  <si>
+    <t>42:30:0504006:89</t>
+  </si>
+  <si>
+    <t>42:30:0504006:87</t>
+  </si>
+  <si>
+    <t>42:30:0504005:48</t>
+  </si>
+  <si>
+    <t>42:30:0504006:71</t>
+  </si>
+  <si>
+    <t>42:30:0504006:100</t>
+  </si>
+  <si>
+    <t>42:30:0504005:82</t>
+  </si>
+  <si>
+    <t>42:30:0504005:80</t>
+  </si>
+  <si>
+    <t>42:30:0504005:77</t>
+  </si>
+  <si>
+    <t>Гжельская</t>
+  </si>
+  <si>
+    <t>42:30:0504050:30</t>
+  </si>
+  <si>
+    <t>42:30:0504050:31</t>
+  </si>
+  <si>
+    <t>42:30:0504006:64</t>
+  </si>
+  <si>
+    <t>Грозненская</t>
+  </si>
+  <si>
+    <t>42:30:0504006:97</t>
+  </si>
+  <si>
+    <t>Апшеронский</t>
+  </si>
+  <si>
+    <t>42:30:0504006:117</t>
+  </si>
+  <si>
+    <t>42:30:0504006:63</t>
+  </si>
+  <si>
+    <t>Мариупольская</t>
+  </si>
+  <si>
+    <t>42:30:0504006:124</t>
+  </si>
+  <si>
+    <t>42:30:0504006:55</t>
+  </si>
+  <si>
+    <t>42:30:0504006:108</t>
+  </si>
+  <si>
+    <t>42:30:0504005:32</t>
+  </si>
+  <si>
+    <t>42:30:0504005:69</t>
+  </si>
+  <si>
+    <t>42:30:0505001:4</t>
+  </si>
+  <si>
+    <t>Тайшетский</t>
+  </si>
+  <si>
+    <t>42:30:0505001:37</t>
+  </si>
+  <si>
+    <t>42:30:0505001:34</t>
+  </si>
+  <si>
+    <t>42:30:0505001:35</t>
+  </si>
+  <si>
+    <t>42:30:0505002:75</t>
+  </si>
+  <si>
+    <t>42:30:0505002:73</t>
+  </si>
+  <si>
+    <t>42:30:0505002:72</t>
+  </si>
+  <si>
+    <t>42:30:0505002:62</t>
+  </si>
+  <si>
+    <t>Коммунарка</t>
+  </si>
+  <si>
+    <t>42:30:0504048:65</t>
+  </si>
+  <si>
+    <t>42:30:0504048:66</t>
+  </si>
+  <si>
+    <t>42:30:0504048:62</t>
+  </si>
+  <si>
+    <t>42:30:0504048:60</t>
+  </si>
+  <si>
+    <t>42:30:0504048:44</t>
+  </si>
+  <si>
+    <t>42:30:0504048:79</t>
+  </si>
+  <si>
+    <t>42:30:0504048:80</t>
+  </si>
+  <si>
+    <t>42:30:0504048:83</t>
+  </si>
+  <si>
+    <t>42:30:0504048:54</t>
+  </si>
+  <si>
+    <t>42:30:0504048:57</t>
+  </si>
+  <si>
+    <t>42:30:0504048:53</t>
+  </si>
+  <si>
+    <t>42:30:0504048:88</t>
+  </si>
+  <si>
+    <t>42:30:0504048:43</t>
+  </si>
+  <si>
+    <t>42:30:0504048:40</t>
+  </si>
+  <si>
+    <t>42:30:0504048:48</t>
+  </si>
+  <si>
+    <t>42:30:0504048:47</t>
+  </si>
+  <si>
+    <t>42:30:0504001:37</t>
+  </si>
+  <si>
+    <t>42:30:0504001:76</t>
+  </si>
+  <si>
+    <t>42:30:0504001:29</t>
+  </si>
+  <si>
+    <t>42:30:0504001:28</t>
+  </si>
+  <si>
+    <t>42:30:0504001:31</t>
+  </si>
+  <si>
+    <t>42:30:0504001:30</t>
+  </si>
+  <si>
+    <t>42:30:0504001:27</t>
+  </si>
+  <si>
+    <t>42:30:0504001:61</t>
+  </si>
+  <si>
+    <t>42:30:0504001:57</t>
+  </si>
+  <si>
+    <t>42:30:0504001:75</t>
+  </si>
+  <si>
+    <t>42:30:0504001:65</t>
+  </si>
+  <si>
+    <t>42:30:0504001:49</t>
+  </si>
+  <si>
+    <t>42:30:0504001:41</t>
+  </si>
+  <si>
+    <t>Простой</t>
+  </si>
+  <si>
+    <t>42:30:0504001:77</t>
+  </si>
+  <si>
+    <t>42:30:0504001:45</t>
+  </si>
+  <si>
+    <t>Острогорская</t>
+  </si>
+  <si>
+    <t>42:30:0504001:82</t>
+  </si>
+  <si>
+    <t>Областной</t>
+  </si>
+  <si>
+    <t>42:30:0504001:88</t>
+  </si>
+  <si>
+    <t>42:30:0504047:29</t>
+  </si>
+  <si>
+    <t>Ударный</t>
+  </si>
+  <si>
+    <t>42:30:0504047:26</t>
+  </si>
+  <si>
+    <t>Окружной</t>
+  </si>
+  <si>
+    <t>42:30:0504002:69</t>
+  </si>
+  <si>
+    <t>42:30:0504002:65</t>
+  </si>
+  <si>
+    <t>Вишневый</t>
+  </si>
+  <si>
+    <t>42:30:0504001:39</t>
+  </si>
+  <si>
+    <t>42:30:0501046:55</t>
+  </si>
+  <si>
+    <t>Главный</t>
+  </si>
+  <si>
+    <t>Сборная</t>
+  </si>
+  <si>
+    <t>42:30:0504002:44</t>
+  </si>
+  <si>
+    <t>Загорская</t>
+  </si>
+  <si>
+    <t>42:30:0504002:33</t>
+  </si>
+  <si>
+    <t>42:30:0504002:35</t>
+  </si>
+  <si>
+    <t>42:30:0504002:43</t>
+  </si>
+  <si>
+    <t>42:30:0504002:45</t>
+  </si>
+  <si>
+    <t>42:30:0504002:46</t>
+  </si>
+  <si>
+    <t>42:30:0504002:61</t>
+  </si>
+  <si>
+    <t>Инженерный</t>
+  </si>
+  <si>
+    <t>42:30:0504003:45</t>
+  </si>
+  <si>
+    <t>42:30:0504003:44</t>
+  </si>
+  <si>
+    <t>Сивашская</t>
+  </si>
+  <si>
+    <t>42:30:0504003:294</t>
+  </si>
+  <si>
+    <t>Тайлепский</t>
+  </si>
+  <si>
+    <t>42:30:0504003:59</t>
+  </si>
+  <si>
+    <t>42:30:0504003:58</t>
+  </si>
+  <si>
+    <t>Парковая</t>
+  </si>
+  <si>
+    <t>42:30:0504003:35</t>
+  </si>
+  <si>
+    <t>Красноводская</t>
+  </si>
+  <si>
+    <t>42:30:0504003:31</t>
+  </si>
+  <si>
+    <t>42:30:0504003:30</t>
+  </si>
+  <si>
+    <t>42:30:0504003:57</t>
+  </si>
+  <si>
+    <t>Золотой Рог</t>
+  </si>
+  <si>
+    <t>42:30:0504003:38</t>
+  </si>
+  <si>
+    <t>42:30:0504003:29</t>
+  </si>
+  <si>
+    <t>42:30:0504003:34</t>
+  </si>
+  <si>
+    <t>42:30:0504003:33</t>
+  </si>
+  <si>
+    <t>42:30:0504004:129</t>
+  </si>
+  <si>
+    <t>42:30:0504004:57</t>
+  </si>
+  <si>
+    <t>42:30:0504004:91</t>
+  </si>
+  <si>
+    <t>42:30:0504004:89</t>
+  </si>
+  <si>
+    <t>42:30:0504005:66</t>
+  </si>
+  <si>
+    <t>42:30:0504004:128</t>
+  </si>
+  <si>
+    <t>Печерская</t>
+  </si>
+  <si>
+    <t>42:30:0504004:86</t>
+  </si>
+  <si>
+    <t>42:30:0504004:125</t>
+  </si>
+  <si>
+    <t>42:30:0504004:66</t>
+  </si>
+  <si>
+    <t>42:30:0504004:69</t>
+  </si>
+  <si>
+    <t>42:30:0504004:76</t>
+  </si>
+  <si>
+    <t>42:30:0504004:120</t>
+  </si>
+  <si>
+    <t>42:30:0504004:80</t>
+  </si>
+  <si>
+    <t>42:30:0504005:54</t>
+  </si>
+  <si>
+    <t>42:30:0504003:60</t>
+  </si>
+  <si>
+    <t>42:30:0501046:52</t>
+  </si>
+  <si>
+    <t>42:30:0501046:49</t>
+  </si>
+  <si>
+    <t>42:30:0501046:47</t>
+  </si>
+  <si>
+    <t>42:30:0501046:40</t>
+  </si>
+  <si>
+    <t>42:30:0501045:13</t>
+  </si>
+  <si>
+    <t>42:30:0501045:18</t>
+  </si>
+  <si>
+    <t>5-А</t>
+  </si>
+  <si>
+    <t>42:30:0501045:17</t>
+  </si>
+  <si>
+    <t>42:30:0501046:43</t>
+  </si>
+  <si>
+    <t>42:30:0504001:67</t>
+  </si>
+  <si>
+    <t>42:30:0504048:70</t>
+  </si>
+  <si>
+    <t>42:30:0504048:67</t>
+  </si>
+  <si>
+    <t>42:30:0504048:77</t>
+  </si>
+  <si>
+    <t>42:30:0504048:73</t>
+  </si>
+  <si>
+    <t>42:30:0504007:71</t>
+  </si>
+  <si>
+    <t>42:30:0504007:68</t>
+  </si>
+  <si>
+    <t>42:30:0504007:66</t>
+  </si>
+  <si>
+    <t>42:30:0504007:69</t>
+  </si>
+  <si>
+    <t>42:30:0504010:11</t>
+  </si>
+  <si>
+    <t>51-А</t>
+  </si>
+  <si>
+    <t>42:30:0504005:44</t>
+  </si>
+  <si>
+    <t>42:30:0505001:33</t>
+  </si>
+  <si>
+    <t>42:30:0505002:71</t>
+  </si>
+  <si>
+    <t>42:30:0505001:11</t>
+  </si>
+  <si>
+    <t>42:30:0505001:10</t>
+  </si>
+  <si>
+    <t>42:30:0504050:29</t>
+  </si>
+  <si>
+    <t>42:30:0504007:470</t>
+  </si>
+  <si>
+    <t>42:30:0504006:120</t>
+  </si>
+  <si>
+    <t>23-А</t>
+  </si>
+  <si>
+    <t>42:30:0504007:60</t>
+  </si>
+  <si>
+    <t>15-А</t>
+  </si>
+  <si>
+    <t>Перекопная</t>
+  </si>
+  <si>
+    <t>42:30:0504004:115</t>
+  </si>
+  <si>
+    <t>42:30:0504004:109</t>
+  </si>
+  <si>
+    <t>42:30:0504004:108</t>
+  </si>
+  <si>
+    <t>42:30:0504004:107</t>
+  </si>
+  <si>
+    <t>Редутная</t>
+  </si>
+  <si>
+    <t>Антрацитная</t>
+  </si>
+  <si>
+    <t>42:30:0505002:47</t>
+  </si>
+  <si>
+    <t>42:30:0505002:45</t>
+  </si>
+  <si>
+    <t>42:30:0505002:42</t>
+  </si>
+  <si>
+    <t>42:30:0505002:36</t>
+  </si>
+  <si>
+    <t>42:30:0505002:34</t>
+  </si>
+  <si>
+    <t>42:30:0505002:39</t>
+  </si>
+  <si>
+    <t>42:30:0505002:32</t>
+  </si>
+  <si>
+    <t>42:30:0505002:43</t>
+  </si>
+  <si>
+    <t>42:30:0505002:46</t>
+  </si>
+  <si>
+    <t>42:30:0505002:30</t>
+  </si>
+  <si>
+    <t>42:30:0505002:48</t>
+  </si>
+  <si>
+    <t>Гродненская</t>
+  </si>
+  <si>
+    <t>42:30:0505002:60</t>
+  </si>
+  <si>
+    <t>42:30:0505002:31</t>
+  </si>
+  <si>
+    <t>42:30:0505003:48</t>
+  </si>
+  <si>
+    <t>Искитимская</t>
+  </si>
+  <si>
+    <t>Тюменская</t>
+  </si>
+  <si>
+    <t>42:30:0505003:118</t>
+  </si>
+  <si>
+    <t>42:30:0505003:120</t>
+  </si>
+  <si>
+    <t>42:30:0505003:95</t>
+  </si>
+  <si>
+    <t>42:30:0505003:103</t>
+  </si>
+  <si>
+    <t>42:30:0505003:96</t>
+  </si>
+  <si>
+    <t>42:30:0505017:60</t>
+  </si>
+  <si>
+    <t>42:30:0505017:62</t>
+  </si>
+  <si>
+    <t>42:30:0505003:44</t>
+  </si>
+  <si>
+    <t>42:30:0505003:75</t>
+  </si>
+  <si>
+    <t>42:30:0505003:77</t>
+  </si>
+  <si>
+    <t>42:30:0505003:62</t>
+  </si>
+  <si>
+    <t>42:30:0505003:42</t>
+  </si>
+  <si>
+    <t>42:30:0505003:57</t>
+  </si>
+  <si>
+    <t>42:30:0505003:59</t>
+  </si>
+  <si>
+    <t>42:30:0505003:61</t>
+  </si>
+  <si>
+    <t>42:30:0505003:69</t>
+  </si>
+  <si>
+    <t>42:30:0505003:64</t>
+  </si>
+  <si>
+    <t>42:30:0505003:43</t>
+  </si>
+  <si>
+    <t>42:30:0505017:53</t>
+  </si>
+  <si>
+    <t>42:30:0505003:99</t>
+  </si>
+  <si>
+    <t>42:30:0505003:100</t>
+  </si>
+  <si>
+    <t>42:30:0505003:85</t>
+  </si>
+  <si>
+    <t>42:30:0505003:83</t>
+  </si>
+  <si>
+    <t>42:30:0505003:105</t>
+  </si>
+  <si>
+    <t>42:30:0505003:104</t>
+  </si>
+  <si>
+    <t>42:30:0505017:57</t>
+  </si>
+  <si>
+    <t>42:30:0505003:87</t>
+  </si>
+  <si>
+    <t>42:30:0505003:90</t>
+  </si>
+  <si>
+    <t>63-А</t>
+  </si>
+  <si>
+    <t>42:30:0505003:71</t>
+  </si>
+  <si>
+    <t>42:30:0505003:72</t>
+  </si>
+  <si>
+    <t>42:30:0505003:73</t>
+  </si>
+  <si>
+    <t>42:30:0505003:37</t>
+  </si>
+  <si>
+    <t>42:30:0505003:36</t>
+  </si>
+  <si>
+    <t>42:30:0505003:41</t>
+  </si>
+  <si>
+    <t>42:30:0505003:93</t>
+  </si>
+  <si>
+    <t>42:30:0505017:87</t>
+  </si>
+  <si>
+    <t>42:30:0505017:83</t>
+  </si>
+  <si>
+    <t>42:30:0505017:78</t>
+  </si>
+  <si>
+    <t>42:30:0505017:75</t>
+  </si>
+  <si>
+    <t>42:30:0505017:59</t>
+  </si>
+  <si>
+    <t>42:30:0505017:66</t>
+  </si>
+  <si>
+    <t>42:30:0505017:68</t>
+  </si>
+  <si>
+    <t>42:30:0505017:80</t>
+  </si>
+  <si>
+    <t>54-А</t>
+  </si>
+  <si>
+    <t>42:30:0505017:67</t>
+  </si>
+  <si>
+    <t>42:30:0504047:41</t>
+  </si>
+  <si>
+    <t>12-А</t>
+  </si>
+  <si>
+    <t>3-А</t>
   </si>
 </sst>
 </file>
@@ -416,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +1390,7 @@
     <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,64 +1398,6294 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>54</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>60</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>61</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>62</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>63</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>64</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>66</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>67</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>76</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>46</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>78</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>26</v>
+      </c>
+      <c r="E59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>82</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <v>47</v>
+      </c>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>83</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>45</v>
+      </c>
+      <c r="E61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>84</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>86</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>23</v>
+      </c>
+      <c r="E63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>87</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>93</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65">
+        <v>40</v>
+      </c>
+      <c r="E65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>94</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66">
+        <v>38</v>
+      </c>
+      <c r="E66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>95</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>96</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>97</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>98</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>99</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>100</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>105</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>106</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>107</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>108</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>109</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>110</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>112</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>113</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>114</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>115</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82">
+        <v>38</v>
+      </c>
+      <c r="E82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>116</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>117</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>118</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>119</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>122</v>
+      </c>
+      <c r="D87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>123</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>130</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>131</v>
+      </c>
+      <c r="D90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>135</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91">
+        <v>45</v>
+      </c>
+      <c r="E91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>140</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>141</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>144</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>145</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95">
+        <v>20</v>
+      </c>
+      <c r="E95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>146</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>147</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>148</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>149</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>151</v>
+      </c>
+      <c r="D100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>153</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101">
+        <v>57</v>
+      </c>
+      <c r="E101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>154</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102">
+        <v>55</v>
+      </c>
+      <c r="E102" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>155</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>74</v>
+      </c>
+      <c r="D103">
+        <v>51</v>
+      </c>
+      <c r="E103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>156</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>74</v>
+      </c>
+      <c r="D104">
+        <v>53</v>
+      </c>
+      <c r="E104" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>157</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>74</v>
+      </c>
+      <c r="D105">
+        <v>86</v>
+      </c>
+      <c r="E105" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>74</v>
+      </c>
+      <c r="D106">
+        <v>84</v>
+      </c>
+      <c r="E106" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>74</v>
+      </c>
+      <c r="D107">
+        <v>82</v>
+      </c>
+      <c r="E107" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>160</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>74</v>
+      </c>
+      <c r="D108">
+        <v>67</v>
+      </c>
+      <c r="E108" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>161</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>74</v>
+      </c>
+      <c r="D109" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>165</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>93</v>
+      </c>
+      <c r="D110">
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>166</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>167</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>168</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>169</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>170</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115">
+        <v>17</v>
+      </c>
+      <c r="E115" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>171</v>
+      </c>
+      <c r="D116" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>172</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117">
+        <v>25</v>
+      </c>
+      <c r="E117" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>173</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" t="s">
+        <v>95</v>
+      </c>
+      <c r="D118">
+        <v>27</v>
+      </c>
+      <c r="E118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>174</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119">
+        <v>29</v>
+      </c>
+      <c r="E119" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>175</v>
+      </c>
+      <c r="D120" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>176</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>179</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122" t="s">
+        <v>95</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>181</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123">
+        <v>16</v>
+      </c>
+      <c r="E123" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>182</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124">
+        <v>18</v>
+      </c>
+      <c r="E124" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>183</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C125" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125">
+        <v>20</v>
+      </c>
+      <c r="E125" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>186</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>62</v>
+      </c>
+      <c r="D126">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>190</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" t="s">
+        <v>62</v>
+      </c>
+      <c r="D127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>191</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" t="s">
+        <v>62</v>
+      </c>
+      <c r="D128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>193</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>62</v>
+      </c>
+      <c r="D129">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>194</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>62</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>195</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>74</v>
+      </c>
+      <c r="D131">
+        <v>54</v>
+      </c>
+      <c r="E131" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>196</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>74</v>
+      </c>
+      <c r="D132">
+        <v>23</v>
+      </c>
+      <c r="E132" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>197</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>69</v>
+      </c>
+      <c r="D133">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>198</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>69</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>199</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>69</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>200</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>74</v>
+      </c>
+      <c r="D136">
+        <v>48</v>
+      </c>
+      <c r="E136" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>201</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>74</v>
+      </c>
+      <c r="D137">
+        <v>46</v>
+      </c>
+      <c r="E137" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>202</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>74</v>
+      </c>
+      <c r="D138">
+        <v>44</v>
+      </c>
+      <c r="E138" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>203</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>115</v>
+      </c>
+      <c r="D139">
+        <v>27</v>
+      </c>
+      <c r="E139" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>207</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>115</v>
+      </c>
+      <c r="D140">
+        <v>25</v>
+      </c>
+      <c r="E140" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>208</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>115</v>
+      </c>
+      <c r="D141">
+        <v>30</v>
+      </c>
+      <c r="E141" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>209</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>119</v>
+      </c>
+      <c r="D142">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>210</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>74</v>
+      </c>
+      <c r="D143">
+        <v>17</v>
+      </c>
+      <c r="E143" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>216</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>119</v>
+      </c>
+      <c r="D144">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>217</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" t="s">
+        <v>121</v>
+      </c>
+      <c r="D145">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>218</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>115</v>
+      </c>
+      <c r="D146">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>219</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>115</v>
+      </c>
+      <c r="D147">
+        <v>24</v>
+      </c>
+      <c r="E147" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>221</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>119</v>
+      </c>
+      <c r="D148">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>222</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>124</v>
+      </c>
+      <c r="D149">
+        <v>19</v>
+      </c>
+      <c r="E149" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>223</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>119</v>
+      </c>
+      <c r="D150">
+        <v>28</v>
+      </c>
+      <c r="E150" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>224</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>124</v>
+      </c>
+      <c r="D151">
+        <v>23</v>
+      </c>
+      <c r="E151" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>226</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>74</v>
+      </c>
+      <c r="D152">
+        <v>26</v>
+      </c>
+      <c r="E152" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>228</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>74</v>
+      </c>
+      <c r="D153">
+        <v>20</v>
+      </c>
+      <c r="E153" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>232</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>93</v>
+      </c>
+      <c r="D154">
+        <v>21</v>
+      </c>
+      <c r="E154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>233</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>93</v>
+      </c>
+      <c r="D155">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>234</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C156" t="s">
+        <v>131</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>237</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C157" t="s">
+        <v>131</v>
+      </c>
+      <c r="D157">
+        <v>13</v>
+      </c>
+      <c r="E157" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>238</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C158" t="s">
+        <v>131</v>
+      </c>
+      <c r="D158">
+        <v>15</v>
+      </c>
+      <c r="E158" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>242</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C159" t="s">
+        <v>131</v>
+      </c>
+      <c r="D159">
+        <v>14</v>
+      </c>
+      <c r="E159" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>243</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C160" t="s">
+        <v>131</v>
+      </c>
+      <c r="D160">
+        <v>10</v>
+      </c>
+      <c r="E160" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>244</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C161" t="s">
+        <v>131</v>
+      </c>
+      <c r="D161">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>247</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>93</v>
+      </c>
+      <c r="D162">
+        <v>24</v>
+      </c>
+      <c r="E162" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>250</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>93</v>
+      </c>
+      <c r="D163">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>251</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>139</v>
+      </c>
+      <c r="D164">
+        <v>171</v>
+      </c>
+      <c r="E164" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>252</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>139</v>
+      </c>
+      <c r="D165">
+        <v>172</v>
+      </c>
+      <c r="E165" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>253</v>
+      </c>
+      <c r="D166" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>255</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>139</v>
+      </c>
+      <c r="D167">
+        <v>167</v>
+      </c>
+      <c r="E167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>258</v>
+      </c>
+      <c r="D168" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>260</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>139</v>
+      </c>
+      <c r="D169">
+        <v>165</v>
+      </c>
+      <c r="E169" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>261</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>139</v>
+      </c>
+      <c r="D170">
+        <v>163</v>
+      </c>
+      <c r="E170" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>265</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>139</v>
+      </c>
+      <c r="D171">
+        <v>189</v>
+      </c>
+      <c r="E171" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>266</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>139</v>
+      </c>
+      <c r="D172">
+        <v>191</v>
+      </c>
+      <c r="E172" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>267</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>139</v>
+      </c>
+      <c r="D173">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>268</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>139</v>
+      </c>
+      <c r="D174">
+        <v>194</v>
+      </c>
+      <c r="E174" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>270</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>139</v>
+      </c>
+      <c r="D175">
+        <v>152</v>
+      </c>
+      <c r="E175" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>271</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>139</v>
+      </c>
+      <c r="D176">
+        <v>155</v>
+      </c>
+      <c r="E176" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>272</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>139</v>
+      </c>
+      <c r="D177">
+        <v>151</v>
+      </c>
+      <c r="E177" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>273</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>139</v>
+      </c>
+      <c r="D178">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>276</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>139</v>
+      </c>
+      <c r="D179">
+        <v>140</v>
+      </c>
+      <c r="E179" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>278</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>139</v>
+      </c>
+      <c r="D180">
+        <v>136</v>
+      </c>
+      <c r="E180" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>279</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>139</v>
+      </c>
+      <c r="D181">
+        <v>132</v>
+      </c>
+      <c r="E181" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>280</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>139</v>
+      </c>
+      <c r="D182">
+        <v>128</v>
+      </c>
+      <c r="E182" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>281</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>139</v>
+      </c>
+      <c r="D183">
+        <v>126</v>
+      </c>
+      <c r="E183" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>282</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>139</v>
+      </c>
+      <c r="D184">
+        <v>124</v>
+      </c>
+      <c r="E184" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>283</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>139</v>
+      </c>
+      <c r="D185">
+        <v>120</v>
+      </c>
+      <c r="E185" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>284</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>139</v>
+      </c>
+      <c r="D186">
+        <v>118</v>
+      </c>
+      <c r="E186" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>285</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>139</v>
+      </c>
+      <c r="D187">
+        <v>116</v>
+      </c>
+      <c r="E187" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>286</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>139</v>
+      </c>
+      <c r="D188">
+        <v>121</v>
+      </c>
+      <c r="E188" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>287</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>139</v>
+      </c>
+      <c r="D189">
+        <v>119</v>
+      </c>
+      <c r="E189" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>288</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>139</v>
+      </c>
+      <c r="D190">
+        <v>115</v>
+      </c>
+      <c r="E190" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>289</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>139</v>
+      </c>
+      <c r="D191">
+        <v>106</v>
+      </c>
+      <c r="E191" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>290</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>139</v>
+      </c>
+      <c r="D192">
+        <v>102</v>
+      </c>
+      <c r="E192" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>291</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>139</v>
+      </c>
+      <c r="D193">
+        <v>111</v>
+      </c>
+      <c r="E193" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>292</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>139</v>
+      </c>
+      <c r="D194">
+        <v>109</v>
+      </c>
+      <c r="E194" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>293</v>
+      </c>
+      <c r="D195" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>295</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>139</v>
+      </c>
+      <c r="D196">
+        <v>90</v>
+      </c>
+      <c r="E196" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>296</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>139</v>
+      </c>
+      <c r="D197">
+        <v>82</v>
+      </c>
+      <c r="E197" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>297</v>
+      </c>
+      <c r="D198" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>298</v>
+      </c>
+      <c r="D199" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>299</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C200" t="s">
+        <v>169</v>
+      </c>
+      <c r="D200">
+        <v>3</v>
+      </c>
+      <c r="E200" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>300</v>
+      </c>
+      <c r="D201" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>301</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>139</v>
+      </c>
+      <c r="D202">
+        <v>85</v>
+      </c>
+      <c r="E202" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>306</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>172</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>307</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C204" t="s">
+        <v>174</v>
+      </c>
+      <c r="D204">
+        <v>4</v>
+      </c>
+      <c r="E204" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>309</v>
+      </c>
+      <c r="D205" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>310</v>
+      </c>
+      <c r="D206" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>311</v>
+      </c>
+      <c r="D207" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>312</v>
+      </c>
+      <c r="D208" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>313</v>
+      </c>
+      <c r="D209" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>314</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>172</v>
+      </c>
+      <c r="D210">
+        <v>3</v>
+      </c>
+      <c r="E210" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>315</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C211" t="s">
+        <v>177</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>316</v>
+      </c>
+      <c r="D212" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>317</v>
+      </c>
+      <c r="D213" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>318</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C214" t="s">
+        <v>177</v>
+      </c>
+      <c r="D214">
+        <v>7</v>
+      </c>
+      <c r="E214" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>319</v>
+      </c>
+      <c r="D215" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>320</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C216" t="s">
+        <v>179</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+      <c r="E216" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>321</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C217" t="s">
+        <v>179</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>322</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C218" t="s">
+        <v>182</v>
+      </c>
+      <c r="D218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>323</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C219" t="s">
+        <v>182</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>325</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>139</v>
+      </c>
+      <c r="D220">
+        <v>77</v>
+      </c>
+      <c r="E220" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>326</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>139</v>
+      </c>
+      <c r="D221">
+        <v>54</v>
+      </c>
+      <c r="E221" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>327</v>
+      </c>
+      <c r="D222" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>328</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C223" t="s">
+        <v>185</v>
+      </c>
+      <c r="D223">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>329</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>186</v>
+      </c>
+      <c r="D224">
+        <v>8</v>
+      </c>
+      <c r="E224" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>330</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>188</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>331</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>188</v>
+      </c>
+      <c r="D226">
+        <v>5</v>
+      </c>
+      <c r="E226" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>332</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>188</v>
+      </c>
+      <c r="D227">
+        <v>7</v>
+      </c>
+      <c r="E227" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>333</v>
+      </c>
+      <c r="D228" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>334</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C229" t="s">
+        <v>185</v>
+      </c>
+      <c r="D229">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>335</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>186</v>
+      </c>
+      <c r="D230">
+        <v>7</v>
+      </c>
+      <c r="E230" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>336</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>186</v>
+      </c>
+      <c r="D231">
+        <v>9</v>
+      </c>
+      <c r="E231" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>337</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>186</v>
+      </c>
+      <c r="D232">
+        <v>11</v>
+      </c>
+      <c r="E232" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>338</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>186</v>
+      </c>
+      <c r="D233">
+        <v>32</v>
+      </c>
+      <c r="E233" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>339</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C234" t="s">
+        <v>195</v>
+      </c>
+      <c r="D234">
+        <v>9</v>
+      </c>
+      <c r="E234" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>340</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C235" t="s">
+        <v>195</v>
+      </c>
+      <c r="D235">
+        <v>8</v>
+      </c>
+      <c r="E235" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>341</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>198</v>
+      </c>
+      <c r="D236">
+        <v>29</v>
+      </c>
+      <c r="E236" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>342</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C237" t="s">
+        <v>200</v>
+      </c>
+      <c r="D237">
+        <v>4</v>
+      </c>
+      <c r="E237" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>343</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C238" t="s">
+        <v>200</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>344</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>203</v>
+      </c>
+      <c r="D239">
+        <v>5</v>
+      </c>
+      <c r="E239" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>345</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>205</v>
+      </c>
+      <c r="D240">
+        <v>4</v>
+      </c>
+      <c r="E240" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>346</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>205</v>
+      </c>
+      <c r="D241">
+        <v>3</v>
+      </c>
+      <c r="E241" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>347</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>203</v>
+      </c>
+      <c r="D242">
+        <v>6</v>
+      </c>
+      <c r="E242" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>348</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>198</v>
+      </c>
+      <c r="D243">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>349</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>198</v>
+      </c>
+      <c r="D244">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>350</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C245" t="s">
+        <v>209</v>
+      </c>
+      <c r="D245">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>351</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C246" t="s">
+        <v>209</v>
+      </c>
+      <c r="D246">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>352</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C247" t="s">
+        <v>209</v>
+      </c>
+      <c r="D247">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>353</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>203</v>
+      </c>
+      <c r="D248">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>354</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>203</v>
+      </c>
+      <c r="D249">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E249" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>355</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>205</v>
+      </c>
+      <c r="D250">
+        <v>10</v>
+      </c>
+      <c r="E250" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>356</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>205</v>
+      </c>
+      <c r="D251">
+        <v>9</v>
+      </c>
+      <c r="E251" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>357</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>205</v>
+      </c>
+      <c r="D252">
+        <v>8</v>
+      </c>
+      <c r="E252" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>358</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>203</v>
+      </c>
+      <c r="D253">
+        <v>17</v>
+      </c>
+      <c r="E253" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>359</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>115</v>
+      </c>
+      <c r="D254">
+        <v>5</v>
+      </c>
+      <c r="E254" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>360</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>115</v>
+      </c>
+      <c r="D255">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>361</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>198</v>
+      </c>
+      <c r="D256">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>362</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>124</v>
+      </c>
+      <c r="D257">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E257" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>363</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>124</v>
+      </c>
+      <c r="D258">
+        <v>6</v>
+      </c>
+      <c r="E258" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>364</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>93</v>
+      </c>
+      <c r="D259">
+        <v>5</v>
+      </c>
+      <c r="E259" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>365</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>203</v>
+      </c>
+      <c r="D260">
+        <v>37</v>
+      </c>
+      <c r="E260" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>366</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>220</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>367</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>124</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>368</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>203</v>
+      </c>
+      <c r="D263">
+        <v>30</v>
+      </c>
+      <c r="E263" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>369</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>119</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>370</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>119</v>
+      </c>
+      <c r="D265">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E265" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>371</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>119</v>
+      </c>
+      <c r="D266">
+        <v>5</v>
+      </c>
+      <c r="E266" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>372</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>119</v>
+      </c>
+      <c r="D267">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>373</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>205</v>
+      </c>
+      <c r="D268">
+        <v>14</v>
+      </c>
+      <c r="E268" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>374</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>203</v>
+      </c>
+      <c r="D269">
+        <v>24</v>
+      </c>
+      <c r="E269" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>375</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>205</v>
+      </c>
+      <c r="D270">
+        <v>18</v>
+      </c>
+      <c r="E270" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>376</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>74</v>
+      </c>
+      <c r="D271">
+        <v>4</v>
+      </c>
+      <c r="E271" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>377</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C272" t="s">
+        <v>195</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>378</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>139</v>
+      </c>
+      <c r="D273">
+        <v>50</v>
+      </c>
+      <c r="E273" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>379</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>139</v>
+      </c>
+      <c r="D274">
+        <v>47</v>
+      </c>
+      <c r="E274" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>380</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>139</v>
+      </c>
+      <c r="D275">
+        <v>44</v>
+      </c>
+      <c r="E275" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>381</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>139</v>
+      </c>
+      <c r="D276">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>382</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>139</v>
+      </c>
+      <c r="D277">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>383</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>139</v>
+      </c>
+      <c r="D278">
+        <v>33</v>
+      </c>
+      <c r="E278" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>384</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>139</v>
+      </c>
+      <c r="D279">
+        <v>8</v>
+      </c>
+      <c r="E279" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>385</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>139</v>
+      </c>
+      <c r="D280">
+        <v>5</v>
+      </c>
+      <c r="E280" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>386</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>139</v>
+      </c>
+      <c r="D281" t="s">
+        <v>236</v>
+      </c>
+      <c r="E281" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>387</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>139</v>
+      </c>
+      <c r="D282">
+        <v>37</v>
+      </c>
+      <c r="E282" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>388</v>
+      </c>
+      <c r="D283" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>389</v>
+      </c>
+      <c r="D284" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>390</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>139</v>
+      </c>
+      <c r="D285">
+        <v>72</v>
+      </c>
+      <c r="E285" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>391</v>
+      </c>
+      <c r="D286" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>392</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>139</v>
+      </c>
+      <c r="D287">
+        <v>176</v>
+      </c>
+      <c r="E287" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>393</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>139</v>
+      </c>
+      <c r="D288">
+        <v>174</v>
+      </c>
+      <c r="E288" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>394</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>139</v>
+      </c>
+      <c r="D289">
+        <v>187</v>
+      </c>
+      <c r="E289" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>395</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>139</v>
+      </c>
+      <c r="D290">
+        <v>183</v>
+      </c>
+      <c r="E290" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>396</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>17</v>
+      </c>
+      <c r="D291">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>397</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292">
+        <v>7</v>
+      </c>
+      <c r="E292" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>398</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293">
+        <v>8</v>
+      </c>
+      <c r="E293" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>399</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294">
+        <v>4</v>
+      </c>
+      <c r="E294" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>400</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>401</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>10</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>402</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>74</v>
+      </c>
+      <c r="D297">
+        <v>65</v>
+      </c>
+      <c r="E297" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>403</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C298" t="s">
+        <v>46</v>
+      </c>
+      <c r="D298">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>404</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C299" t="s">
+        <v>46</v>
+      </c>
+      <c r="D299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>405</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>74</v>
+      </c>
+      <c r="D300">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>406</v>
+      </c>
+      <c r="D301" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>407</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>74</v>
+      </c>
+      <c r="D302" t="s">
+        <v>249</v>
+      </c>
+      <c r="E302" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>408</v>
+      </c>
+      <c r="D303" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>409</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C304" t="s">
+        <v>131</v>
+      </c>
+      <c r="D304">
+        <v>9</v>
+      </c>
+      <c r="E304" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>410</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C305" t="s">
+        <v>131</v>
+      </c>
+      <c r="D305">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>411</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C306" t="s">
+        <v>131</v>
+      </c>
+      <c r="D306">
+        <v>16</v>
+      </c>
+      <c r="E306" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>412</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C307" t="s">
+        <v>95</v>
+      </c>
+      <c r="D307">
+        <v>4</v>
+      </c>
+      <c r="E307" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>413</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C308" t="s">
+        <v>95</v>
+      </c>
+      <c r="D308">
+        <v>2</v>
+      </c>
+      <c r="E308" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>414</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>115</v>
+      </c>
+      <c r="D309">
+        <v>19</v>
+      </c>
+      <c r="E309" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>415</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>69</v>
+      </c>
+      <c r="D310">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>416</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311">
+        <v>3</v>
+      </c>
+      <c r="E311" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>417</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C312" t="s">
+        <v>62</v>
+      </c>
+      <c r="D312">
+        <v>14</v>
+      </c>
+      <c r="E312" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>418</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>62</v>
+      </c>
+      <c r="D313" t="s">
+        <v>258</v>
+      </c>
+      <c r="E313" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>419</v>
+      </c>
+      <c r="D314" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>420</v>
+      </c>
+      <c r="D315" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>421</v>
+      </c>
+      <c r="D316" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>422</v>
+      </c>
+      <c r="D317" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>423</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>220</v>
+      </c>
+      <c r="D318">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>424</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>220</v>
+      </c>
+      <c r="D319">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>425</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>220</v>
+      </c>
+      <c r="D320">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>426</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>220</v>
+      </c>
+      <c r="D321">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>427</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>220</v>
+      </c>
+      <c r="D322">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>428</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" t="s">
+        <v>220</v>
+      </c>
+      <c r="D323">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>429</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>220</v>
+      </c>
+      <c r="D324">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>430</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" t="s">
+        <v>220</v>
+      </c>
+      <c r="D325" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>431</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" t="s">
+        <v>220</v>
+      </c>
+      <c r="D326">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>432</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s">
+        <v>220</v>
+      </c>
+      <c r="D327">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>433</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>220</v>
+      </c>
+      <c r="D328">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>434</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>220</v>
+      </c>
+      <c r="D329">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>435</v>
+      </c>
+      <c r="D330" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>436</v>
+      </c>
+      <c r="D331" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>437</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>261</v>
+      </c>
+      <c r="D332">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>438</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" t="s">
+        <v>261</v>
+      </c>
+      <c r="D333">
+        <v>22</v>
+      </c>
+      <c r="E333" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>439</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334" t="s">
+        <v>261</v>
+      </c>
+      <c r="D334">
+        <v>13</v>
+      </c>
+      <c r="E334" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>440</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" t="s">
+        <v>261</v>
+      </c>
+      <c r="D335">
+        <v>11</v>
+      </c>
+      <c r="E335" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>441</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>261</v>
+      </c>
+      <c r="D336">
+        <v>10</v>
+      </c>
+      <c r="E336" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>442</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" t="s">
+        <v>266</v>
+      </c>
+      <c r="D337">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>443</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>266</v>
+      </c>
+      <c r="D338">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>444</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" t="s">
+        <v>266</v>
+      </c>
+      <c r="D339">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>445</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>267</v>
+      </c>
+      <c r="D340">
+        <v>16</v>
+      </c>
+      <c r="E340" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>446</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>267</v>
+      </c>
+      <c r="D341">
+        <v>14</v>
+      </c>
+      <c r="E341" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>447</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>266</v>
+      </c>
+      <c r="D342">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>448</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>267</v>
+      </c>
+      <c r="D343">
+        <v>8</v>
+      </c>
+      <c r="E343" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>449</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" t="s">
+        <v>267</v>
+      </c>
+      <c r="D344">
+        <v>4</v>
+      </c>
+      <c r="E344" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>450</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345" t="s">
+        <v>267</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>451</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" t="s">
+        <v>267</v>
+      </c>
+      <c r="D346">
+        <v>7</v>
+      </c>
+      <c r="E346" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>452</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>267</v>
+      </c>
+      <c r="D347">
+        <v>9</v>
+      </c>
+      <c r="E347" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>453</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>267</v>
+      </c>
+      <c r="D348">
+        <v>11</v>
+      </c>
+      <c r="E348" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>454</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349" t="s">
+        <v>267</v>
+      </c>
+      <c r="D349">
+        <v>15</v>
+      </c>
+      <c r="E349" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>455</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>267</v>
+      </c>
+      <c r="D350">
+        <v>17</v>
+      </c>
+      <c r="E350" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>456</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>267</v>
+      </c>
+      <c r="D351">
+        <v>21</v>
+      </c>
+      <c r="E351" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>457</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" t="s">
+        <v>279</v>
+      </c>
+      <c r="D352">
+        <v>8</v>
+      </c>
+      <c r="E352" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>458</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" t="s">
+        <v>267</v>
+      </c>
+      <c r="D353">
+        <v>29</v>
+      </c>
+      <c r="E353" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>459</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" t="s">
+        <v>267</v>
+      </c>
+      <c r="D354">
+        <v>31</v>
+      </c>
+      <c r="E354" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>460</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" t="s">
+        <v>283</v>
+      </c>
+      <c r="D355">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>461</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>284</v>
+      </c>
+      <c r="D356">
+        <v>12</v>
+      </c>
+      <c r="E356" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>462</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>284</v>
+      </c>
+      <c r="D357">
+        <v>16</v>
+      </c>
+      <c r="E357" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>463</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" t="s">
+        <v>283</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>464</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>283</v>
+      </c>
+      <c r="D359">
+        <v>3</v>
+      </c>
+      <c r="E359" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>465</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>283</v>
+      </c>
+      <c r="D360">
+        <v>5</v>
+      </c>
+      <c r="E360" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>466</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" t="s">
+        <v>283</v>
+      </c>
+      <c r="D361">
+        <v>12</v>
+      </c>
+      <c r="E361" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>467</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" t="s">
+        <v>283</v>
+      </c>
+      <c r="D362">
+        <v>14</v>
+      </c>
+      <c r="E362" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>468</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" t="s">
+        <v>267</v>
+      </c>
+      <c r="D363">
+        <v>41</v>
+      </c>
+      <c r="E363" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>469</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>279</v>
+      </c>
+      <c r="D364">
+        <v>10</v>
+      </c>
+      <c r="E364" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>470</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" t="s">
+        <v>279</v>
+      </c>
+      <c r="D365">
+        <v>13</v>
+      </c>
+      <c r="E365" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>471</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" t="s">
+        <v>267</v>
+      </c>
+      <c r="D366">
+        <v>45</v>
+      </c>
+      <c r="E366" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>472</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" t="s">
+        <v>267</v>
+      </c>
+      <c r="D367">
+        <v>47</v>
+      </c>
+      <c r="E367" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>473</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>267</v>
+      </c>
+      <c r="D368">
+        <v>38</v>
+      </c>
+      <c r="E368" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>474</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" t="s">
+        <v>267</v>
+      </c>
+      <c r="D369">
+        <v>40</v>
+      </c>
+      <c r="E369" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>475</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" t="s">
+        <v>267</v>
+      </c>
+      <c r="D370">
+        <v>44</v>
+      </c>
+      <c r="E370" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>476</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>267</v>
+      </c>
+      <c r="D371">
+        <v>55</v>
+      </c>
+      <c r="E371" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>477</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" t="s">
+        <v>267</v>
+      </c>
+      <c r="D372">
+        <v>50</v>
+      </c>
+      <c r="E372" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>478</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" t="s">
+        <v>267</v>
+      </c>
+      <c r="D373">
+        <v>52</v>
+      </c>
+      <c r="E373" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>479</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" t="s">
+        <v>283</v>
+      </c>
+      <c r="D374">
+        <v>28</v>
+      </c>
+      <c r="E374" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>480</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375" t="s">
+        <v>283</v>
+      </c>
+      <c r="D375">
+        <v>17</v>
+      </c>
+      <c r="E375" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>481</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" t="s">
+        <v>283</v>
+      </c>
+      <c r="D376">
+        <v>19</v>
+      </c>
+      <c r="E376" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>482</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" t="s">
+        <v>283</v>
+      </c>
+      <c r="D377">
+        <v>23</v>
+      </c>
+      <c r="E377" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>483</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" t="s">
+        <v>283</v>
+      </c>
+      <c r="D378">
+        <v>25</v>
+      </c>
+      <c r="E378" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>484</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379" t="s">
+        <v>283</v>
+      </c>
+      <c r="D379">
+        <v>29</v>
+      </c>
+      <c r="E379" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>485</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" t="s">
+        <v>283</v>
+      </c>
+      <c r="D380">
+        <v>31</v>
+      </c>
+      <c r="E380" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>486</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" t="s">
+        <v>283</v>
+      </c>
+      <c r="D381">
+        <v>40</v>
+      </c>
+      <c r="E381" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>487</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>283</v>
+      </c>
+      <c r="D382">
+        <v>33</v>
+      </c>
+      <c r="E382" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>488</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" t="s">
+        <v>283</v>
+      </c>
+      <c r="D383">
+        <v>39</v>
+      </c>
+      <c r="E383" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>489</v>
+      </c>
+      <c r="D384" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>490</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" t="s">
+        <v>267</v>
+      </c>
+      <c r="D385" t="s">
+        <v>313</v>
+      </c>
+      <c r="E385" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>491</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" t="s">
+        <v>267</v>
+      </c>
+      <c r="D386">
+        <v>65</v>
+      </c>
+      <c r="E386" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>492</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" t="s">
+        <v>267</v>
+      </c>
+      <c r="D387">
+        <v>67</v>
+      </c>
+      <c r="E387" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>493</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" t="s">
+        <v>267</v>
+      </c>
+      <c r="D388">
+        <v>73</v>
+      </c>
+      <c r="E388" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>494</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>267</v>
+      </c>
+      <c r="D389">
+        <v>72</v>
+      </c>
+      <c r="E389" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>495</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>267</v>
+      </c>
+      <c r="D390">
+        <v>83</v>
+      </c>
+      <c r="E390" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>496</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391" t="s">
+        <v>283</v>
+      </c>
+      <c r="D391">
+        <v>47</v>
+      </c>
+      <c r="E391" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>497</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" t="s">
+        <v>283</v>
+      </c>
+      <c r="D392">
+        <v>110</v>
+      </c>
+      <c r="E392" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>498</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393" t="s">
+        <v>283</v>
+      </c>
+      <c r="D393">
+        <v>100</v>
+      </c>
+      <c r="E393" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>499</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>283</v>
+      </c>
+      <c r="D394">
+        <v>82</v>
+      </c>
+      <c r="E394" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>500</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" t="s">
+        <v>283</v>
+      </c>
+      <c r="D395">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>501</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" t="s">
+        <v>283</v>
+      </c>
+      <c r="D396">
+        <v>76</v>
+      </c>
+      <c r="E396" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>502</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s">
+        <v>283</v>
+      </c>
+      <c r="D397">
+        <v>52</v>
+      </c>
+      <c r="E397" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>503</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" t="s">
+        <v>283</v>
+      </c>
+      <c r="D398">
+        <v>54</v>
+      </c>
+      <c r="E398" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>504</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399" t="s">
+        <v>283</v>
+      </c>
+      <c r="D399">
+        <v>56</v>
+      </c>
+      <c r="E399" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>505</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400" t="s">
+        <v>283</v>
+      </c>
+      <c r="D400">
+        <v>90</v>
+      </c>
+      <c r="E400" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>506</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401" t="s">
+        <v>283</v>
+      </c>
+      <c r="D401" t="s">
+        <v>329</v>
+      </c>
+      <c r="E401" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>507</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C402" t="s">
+        <v>182</v>
+      </c>
+      <c r="D402">
+        <v>3</v>
+      </c>
+      <c r="E402" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>508</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>266</v>
+      </c>
+      <c r="D403">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>509</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>266</v>
+      </c>
+      <c r="D404" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>510</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>284</v>
+      </c>
+      <c r="D405" t="s">
+        <v>333</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
